--- a/data/neut_plate_reader_data/HC080043_3.xlsx
+++ b/data/neut_plate_reader_data/HC080043_3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/bloom_j/computational_notebooks/reguia/2020/validation/data/neut_plate_reader_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63382D0F-273A-BE4F-A9F8-FB71BD39D92E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="1060" windowWidth="27800" windowHeight="12580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F193D" sheetId="6" r:id="rId1"/>
@@ -12,18 +18,21 @@
     <sheet name="F159G" sheetId="4" r:id="rId3"/>
     <sheet name="F193F" sheetId="3" r:id="rId4"/>
     <sheet name="WT" sheetId="2" r:id="rId5"/>
+    <sheet name="May K189D" sheetId="7" r:id="rId6"/>
+    <sheet name="May K189N" sheetId="8" r:id="rId7"/>
+    <sheet name="May WT" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -109,12 +118,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -200,12 +209,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -291,12 +300,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -358,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -382,12 +391,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -449,7 +458,280 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -473,7 +755,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="76">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -668,12 +950,45 @@
   </si>
   <si>
     <t>5/1/2020 9:07:25 AM</t>
+  </si>
+  <si>
+    <t>5/9/2020 8:45:05 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 23.1 °C</t>
+  </si>
+  <si>
+    <t>5/9/2020 8:44:08 AM</t>
+  </si>
+  <si>
+    <t>8:43:10 AM</t>
+  </si>
+  <si>
+    <t>5/9/2020 8:42:53 AM</t>
+  </si>
+  <si>
+    <t>5/9/2020 8:41:55 AM</t>
+  </si>
+  <si>
+    <t>8:40:57 AM</t>
+  </si>
+  <si>
+    <t>5/9/2020 8:40:36 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 22.8 °C</t>
+  </si>
+  <si>
+    <t>5/9/2020 8:39:39 AM</t>
+  </si>
+  <si>
+    <t>8:38:38 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -704,7 +1019,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,60 +1070,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFD4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6495ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF32CD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ACD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FBC8B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEB887"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4A460"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2691E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -837,23 +1098,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6"/>
-    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7"/>
-    <cellStyle name="Tecan.At.Excel.Error" xfId="1"/>
-    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5"/>
-    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3"/>
-    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4"/>
-    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2"/>
+    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Tecan.At.Excel.Error" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -902,7 +1166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -935,9 +1199,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -970,6 +1251,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1145,14 +1443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1168,7 +1466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1176,7 +1474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1184,7 +1482,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1192,7 +1490,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1200,7 +1498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1208,7 +1506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1216,17 +1514,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1234,12 +1532,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1250,7 +1548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1261,7 +1559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1272,7 +1570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1283,7 +1581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1294,7 +1592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1305,7 +1603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1316,7 +1614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1327,7 +1625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1338,7 +1636,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1349,7 +1647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1357,12 +1655,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1403,7 +1701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1444,7 +1742,7 @@
         <v>13314</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1485,7 +1783,7 @@
         <v>17175</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1526,7 +1824,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1567,7 +1865,7 @@
         <v>25040</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -1608,7 +1906,7 @@
         <v>24642</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -1649,7 +1947,7 @@
         <v>24463</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -1690,7 +1988,7 @@
         <v>40244</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -1731,7 +2029,7 @@
         <v>11826</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1746,14 +2044,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1761,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1769,7 +2067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1777,7 +2075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1785,7 +2083,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1793,7 +2091,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1801,7 +2099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1809,7 +2107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1817,17 +2115,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1835,12 +2133,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1851,7 +2149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1862,7 +2160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1873,7 +2171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1884,7 +2182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1895,7 +2193,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1906,7 +2204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1917,7 +2215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1928,7 +2226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1939,7 +2237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1950,7 +2248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1958,12 +2256,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2004,7 +2302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -2045,7 +2343,7 @@
         <v>12872</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -2086,7 +2384,7 @@
         <v>16468</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2127,7 +2425,7 @@
         <v>37674</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2168,7 +2466,7 @@
         <v>23591</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2209,7 +2507,7 @@
         <v>23811</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2250,7 +2548,7 @@
         <v>23519</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2291,7 +2589,7 @@
         <v>34674</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -2332,7 +2630,7 @@
         <v>12293</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2347,14 +2645,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2370,7 +2668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2378,7 +2676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2386,7 +2684,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2394,7 +2692,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2402,7 +2700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2410,7 +2708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2418,17 +2716,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2436,12 +2734,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2452,7 +2750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2463,7 +2761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2474,7 +2772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2485,7 +2783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2496,7 +2794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2507,7 +2805,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2518,7 +2816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2529,7 +2827,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2540,7 +2838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2551,7 +2849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2559,12 +2857,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2605,7 +2903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -2646,7 +2944,7 @@
         <v>5934</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -2687,7 +2985,7 @@
         <v>8385</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2728,7 +3026,7 @@
         <v>32740</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2769,7 +3067,7 @@
         <v>16977</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2810,7 +3108,7 @@
         <v>14951</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2851,7 +3149,7 @@
         <v>15592</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2892,7 +3190,7 @@
         <v>30459</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -2933,7 +3231,7 @@
         <v>5468</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2948,14 +3246,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2963,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2971,7 +3269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2979,7 +3277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2987,7 +3285,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2995,7 +3293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3003,7 +3301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3011,7 +3309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3019,17 +3317,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3037,12 +3335,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3053,7 +3351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3064,7 +3362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3075,7 +3373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3086,7 +3384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3097,7 +3395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3108,7 +3406,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3119,7 +3417,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3130,7 +3428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3141,7 +3439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3152,7 +3450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3160,12 +3458,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3206,7 +3504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -3247,7 +3545,7 @@
         <v>15946</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -3288,7 +3586,7 @@
         <v>21207</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -3329,7 +3627,7 @@
         <v>39074</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -3370,7 +3668,7 @@
         <v>28787</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -3411,7 +3709,7 @@
         <v>29187</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3452,7 +3750,7 @@
         <v>24796</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -3493,7 +3791,7 @@
         <v>38556</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -3534,7 +3832,7 @@
         <v>14944</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -3549,14 +3847,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3564,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3572,7 +3870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3580,7 +3878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3588,7 +3886,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3596,7 +3894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3604,7 +3902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3612,7 +3910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3620,17 +3918,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3638,12 +3936,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3654,7 +3952,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3665,7 +3963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3676,7 +3974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3687,7 +3985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3698,7 +3996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3709,7 +4007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3720,7 +4018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3731,7 +4029,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3742,7 +4040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3753,7 +4051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3761,12 +4059,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3807,7 +4105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -3848,7 +4146,7 @@
         <v>21841</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -3889,7 +4187,7 @@
         <v>28417</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -3930,7 +4228,7 @@
         <v>41984</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -3971,7 +4269,7 @@
         <v>38845</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -4012,7 +4310,7 @@
         <v>39232</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -4053,7 +4351,7 @@
         <v>38804</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -4094,7 +4392,7 @@
         <v>40228</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -4135,12 +4433,1821 @@
         <v>20662</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C58B75-AD24-D94C-8554-313C330FFB8F}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>105</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>9157</v>
+      </c>
+      <c r="C32">
+        <v>9271</v>
+      </c>
+      <c r="D32">
+        <v>9317</v>
+      </c>
+      <c r="E32">
+        <v>9432</v>
+      </c>
+      <c r="F32">
+        <v>9425</v>
+      </c>
+      <c r="G32">
+        <v>9422</v>
+      </c>
+      <c r="H32">
+        <v>9556</v>
+      </c>
+      <c r="I32">
+        <v>9518</v>
+      </c>
+      <c r="J32">
+        <v>9407</v>
+      </c>
+      <c r="K32">
+        <v>9535</v>
+      </c>
+      <c r="L32">
+        <v>9299</v>
+      </c>
+      <c r="M32">
+        <v>9202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>11865</v>
+      </c>
+      <c r="C33">
+        <v>11671</v>
+      </c>
+      <c r="D33">
+        <v>11652</v>
+      </c>
+      <c r="E33">
+        <v>11740</v>
+      </c>
+      <c r="F33">
+        <v>11936</v>
+      </c>
+      <c r="G33">
+        <v>11806</v>
+      </c>
+      <c r="H33">
+        <v>11831</v>
+      </c>
+      <c r="I33">
+        <v>12115</v>
+      </c>
+      <c r="J33">
+        <v>11818</v>
+      </c>
+      <c r="K33">
+        <v>12061</v>
+      </c>
+      <c r="L33">
+        <v>11860</v>
+      </c>
+      <c r="M33">
+        <v>11718</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>36450</v>
+      </c>
+      <c r="C34">
+        <v>38733</v>
+      </c>
+      <c r="D34">
+        <v>36288</v>
+      </c>
+      <c r="E34">
+        <v>37839</v>
+      </c>
+      <c r="F34">
+        <v>37996</v>
+      </c>
+      <c r="G34">
+        <v>39351</v>
+      </c>
+      <c r="H34">
+        <v>39040</v>
+      </c>
+      <c r="I34">
+        <v>39819</v>
+      </c>
+      <c r="J34">
+        <v>38700</v>
+      </c>
+      <c r="K34">
+        <v>39295</v>
+      </c>
+      <c r="L34">
+        <v>37811</v>
+      </c>
+      <c r="M34">
+        <v>35453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>36973</v>
+      </c>
+      <c r="C35">
+        <v>38517</v>
+      </c>
+      <c r="D35">
+        <v>36079</v>
+      </c>
+      <c r="E35">
+        <v>35320</v>
+      </c>
+      <c r="F35">
+        <v>33095</v>
+      </c>
+      <c r="G35">
+        <v>31512</v>
+      </c>
+      <c r="H35">
+        <v>26971</v>
+      </c>
+      <c r="I35">
+        <v>22571</v>
+      </c>
+      <c r="J35">
+        <v>16846</v>
+      </c>
+      <c r="K35">
+        <v>13152</v>
+      </c>
+      <c r="L35">
+        <v>12559</v>
+      </c>
+      <c r="M35">
+        <v>13857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>35181</v>
+      </c>
+      <c r="C36">
+        <v>34463</v>
+      </c>
+      <c r="D36">
+        <v>34905</v>
+      </c>
+      <c r="E36">
+        <v>33522</v>
+      </c>
+      <c r="F36">
+        <v>32423</v>
+      </c>
+      <c r="G36">
+        <v>30709</v>
+      </c>
+      <c r="H36">
+        <v>26540</v>
+      </c>
+      <c r="I36">
+        <v>20785</v>
+      </c>
+      <c r="J36">
+        <v>16439</v>
+      </c>
+      <c r="K36">
+        <v>13071</v>
+      </c>
+      <c r="L36">
+        <v>12548</v>
+      </c>
+      <c r="M36">
+        <v>14008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>34139</v>
+      </c>
+      <c r="C37">
+        <v>34995</v>
+      </c>
+      <c r="D37">
+        <v>34780</v>
+      </c>
+      <c r="E37">
+        <v>33468</v>
+      </c>
+      <c r="F37">
+        <v>32424</v>
+      </c>
+      <c r="G37">
+        <v>29388</v>
+      </c>
+      <c r="H37">
+        <v>25506</v>
+      </c>
+      <c r="I37">
+        <v>21319</v>
+      </c>
+      <c r="J37">
+        <v>15979</v>
+      </c>
+      <c r="K37">
+        <v>12967</v>
+      </c>
+      <c r="L37">
+        <v>12437</v>
+      </c>
+      <c r="M37">
+        <v>13904</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>35838</v>
+      </c>
+      <c r="C38">
+        <v>36366</v>
+      </c>
+      <c r="D38">
+        <v>36936</v>
+      </c>
+      <c r="E38">
+        <v>37807</v>
+      </c>
+      <c r="F38">
+        <v>35031</v>
+      </c>
+      <c r="G38">
+        <v>36901</v>
+      </c>
+      <c r="H38">
+        <v>36273</v>
+      </c>
+      <c r="I38">
+        <v>36307</v>
+      </c>
+      <c r="J38">
+        <v>36588</v>
+      </c>
+      <c r="K38">
+        <v>35627</v>
+      </c>
+      <c r="L38">
+        <v>34840</v>
+      </c>
+      <c r="M38">
+        <v>34465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>8604</v>
+      </c>
+      <c r="C39">
+        <v>8744</v>
+      </c>
+      <c r="D39">
+        <v>8835</v>
+      </c>
+      <c r="E39">
+        <v>8870</v>
+      </c>
+      <c r="F39">
+        <v>8922</v>
+      </c>
+      <c r="G39">
+        <v>9060</v>
+      </c>
+      <c r="H39">
+        <v>8949</v>
+      </c>
+      <c r="I39">
+        <v>8939</v>
+      </c>
+      <c r="J39">
+        <v>8924</v>
+      </c>
+      <c r="K39">
+        <v>8847</v>
+      </c>
+      <c r="L39">
+        <v>8752</v>
+      </c>
+      <c r="M39">
+        <v>8790</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F4D8AE-74FA-3247-90C3-0EFB77329BAC}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>21422</v>
+      </c>
+      <c r="C32">
+        <v>20957</v>
+      </c>
+      <c r="D32">
+        <v>21481</v>
+      </c>
+      <c r="E32">
+        <v>21682</v>
+      </c>
+      <c r="F32">
+        <v>21874</v>
+      </c>
+      <c r="G32">
+        <v>22782</v>
+      </c>
+      <c r="H32">
+        <v>22162</v>
+      </c>
+      <c r="I32">
+        <v>21842</v>
+      </c>
+      <c r="J32">
+        <v>21566</v>
+      </c>
+      <c r="K32">
+        <v>22007</v>
+      </c>
+      <c r="L32">
+        <v>21445</v>
+      </c>
+      <c r="M32">
+        <v>21115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>26632</v>
+      </c>
+      <c r="C33">
+        <v>26504</v>
+      </c>
+      <c r="D33">
+        <v>26626</v>
+      </c>
+      <c r="E33">
+        <v>26773</v>
+      </c>
+      <c r="F33">
+        <v>27079</v>
+      </c>
+      <c r="G33">
+        <v>27000</v>
+      </c>
+      <c r="H33">
+        <v>26775</v>
+      </c>
+      <c r="I33">
+        <v>27223</v>
+      </c>
+      <c r="J33">
+        <v>27114</v>
+      </c>
+      <c r="K33">
+        <v>27143</v>
+      </c>
+      <c r="L33">
+        <v>26774</v>
+      </c>
+      <c r="M33">
+        <v>27343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>39527</v>
+      </c>
+      <c r="C34">
+        <v>39392</v>
+      </c>
+      <c r="D34">
+        <v>40049</v>
+      </c>
+      <c r="E34">
+        <v>39903</v>
+      </c>
+      <c r="F34">
+        <v>41265</v>
+      </c>
+      <c r="G34">
+        <v>41863</v>
+      </c>
+      <c r="H34">
+        <v>40457</v>
+      </c>
+      <c r="I34">
+        <v>41639</v>
+      </c>
+      <c r="J34">
+        <v>40259</v>
+      </c>
+      <c r="K34">
+        <v>40478</v>
+      </c>
+      <c r="L34">
+        <v>40890</v>
+      </c>
+      <c r="M34">
+        <v>40875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>38194</v>
+      </c>
+      <c r="C35">
+        <v>40061</v>
+      </c>
+      <c r="D35">
+        <v>39944</v>
+      </c>
+      <c r="E35">
+        <v>38628</v>
+      </c>
+      <c r="F35">
+        <v>37247</v>
+      </c>
+      <c r="G35">
+        <v>36997</v>
+      </c>
+      <c r="H35">
+        <v>33224</v>
+      </c>
+      <c r="I35">
+        <v>31095</v>
+      </c>
+      <c r="J35">
+        <v>27872</v>
+      </c>
+      <c r="K35">
+        <v>27636</v>
+      </c>
+      <c r="L35">
+        <v>28751</v>
+      </c>
+      <c r="M35">
+        <v>32494</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>37619</v>
+      </c>
+      <c r="C36">
+        <v>38637</v>
+      </c>
+      <c r="D36">
+        <v>37319</v>
+      </c>
+      <c r="E36">
+        <v>38186</v>
+      </c>
+      <c r="F36">
+        <v>36892</v>
+      </c>
+      <c r="G36">
+        <v>35672</v>
+      </c>
+      <c r="H36">
+        <v>33110</v>
+      </c>
+      <c r="I36">
+        <v>29590</v>
+      </c>
+      <c r="J36">
+        <v>27857</v>
+      </c>
+      <c r="K36">
+        <v>26892</v>
+      </c>
+      <c r="L36">
+        <v>28467</v>
+      </c>
+      <c r="M36">
+        <v>31954</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>37486</v>
+      </c>
+      <c r="C37">
+        <v>37618</v>
+      </c>
+      <c r="D37">
+        <v>38022</v>
+      </c>
+      <c r="E37">
+        <v>38562</v>
+      </c>
+      <c r="F37">
+        <v>37038</v>
+      </c>
+      <c r="G37">
+        <v>35925</v>
+      </c>
+      <c r="H37">
+        <v>33705</v>
+      </c>
+      <c r="I37">
+        <v>29199</v>
+      </c>
+      <c r="J37">
+        <v>27327</v>
+      </c>
+      <c r="K37">
+        <v>26820</v>
+      </c>
+      <c r="L37">
+        <v>29033</v>
+      </c>
+      <c r="M37">
+        <v>31688</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>37770</v>
+      </c>
+      <c r="C38">
+        <v>37675</v>
+      </c>
+      <c r="D38">
+        <v>38676</v>
+      </c>
+      <c r="E38">
+        <v>38432</v>
+      </c>
+      <c r="F38">
+        <v>38737</v>
+      </c>
+      <c r="G38">
+        <v>39114</v>
+      </c>
+      <c r="H38">
+        <v>39417</v>
+      </c>
+      <c r="I38">
+        <v>39565</v>
+      </c>
+      <c r="J38">
+        <v>39194</v>
+      </c>
+      <c r="K38">
+        <v>38278</v>
+      </c>
+      <c r="L38">
+        <v>39002</v>
+      </c>
+      <c r="M38">
+        <v>37125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>19868</v>
+      </c>
+      <c r="C39">
+        <v>19821</v>
+      </c>
+      <c r="D39">
+        <v>19893</v>
+      </c>
+      <c r="E39">
+        <v>20266</v>
+      </c>
+      <c r="F39">
+        <v>20119</v>
+      </c>
+      <c r="G39">
+        <v>20515</v>
+      </c>
+      <c r="H39">
+        <v>20494</v>
+      </c>
+      <c r="I39">
+        <v>20216</v>
+      </c>
+      <c r="J39">
+        <v>20558</v>
+      </c>
+      <c r="K39">
+        <v>20351</v>
+      </c>
+      <c r="L39">
+        <v>19997</v>
+      </c>
+      <c r="M39">
+        <v>20224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E3416F-C692-B24D-ADAB-20FF9E405D01}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>12720</v>
+      </c>
+      <c r="C32">
+        <v>12725</v>
+      </c>
+      <c r="D32">
+        <v>13134</v>
+      </c>
+      <c r="E32">
+        <v>13075</v>
+      </c>
+      <c r="F32">
+        <v>13341</v>
+      </c>
+      <c r="G32">
+        <v>13904</v>
+      </c>
+      <c r="H32">
+        <v>13452</v>
+      </c>
+      <c r="I32">
+        <v>13344</v>
+      </c>
+      <c r="J32">
+        <v>13222</v>
+      </c>
+      <c r="K32">
+        <v>13474</v>
+      </c>
+      <c r="L32">
+        <v>13147</v>
+      </c>
+      <c r="M32">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>15733</v>
+      </c>
+      <c r="C33">
+        <v>15667</v>
+      </c>
+      <c r="D33">
+        <v>15943</v>
+      </c>
+      <c r="E33">
+        <v>15977</v>
+      </c>
+      <c r="F33">
+        <v>16303</v>
+      </c>
+      <c r="G33">
+        <v>16332</v>
+      </c>
+      <c r="H33">
+        <v>16182</v>
+      </c>
+      <c r="I33">
+        <v>16321</v>
+      </c>
+      <c r="J33">
+        <v>16381</v>
+      </c>
+      <c r="K33">
+        <v>16289</v>
+      </c>
+      <c r="L33">
+        <v>16090</v>
+      </c>
+      <c r="M33">
+        <v>16481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>34838</v>
+      </c>
+      <c r="C34">
+        <v>36688</v>
+      </c>
+      <c r="D34">
+        <v>36503</v>
+      </c>
+      <c r="E34">
+        <v>36828</v>
+      </c>
+      <c r="F34">
+        <v>36388</v>
+      </c>
+      <c r="G34">
+        <v>38726</v>
+      </c>
+      <c r="H34">
+        <v>38920</v>
+      </c>
+      <c r="I34">
+        <v>37074</v>
+      </c>
+      <c r="J34">
+        <v>36336</v>
+      </c>
+      <c r="K34">
+        <v>37290</v>
+      </c>
+      <c r="L34">
+        <v>37263</v>
+      </c>
+      <c r="M34">
+        <v>35799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>34702</v>
+      </c>
+      <c r="C35">
+        <v>33502</v>
+      </c>
+      <c r="D35">
+        <v>34967</v>
+      </c>
+      <c r="E35">
+        <v>34035</v>
+      </c>
+      <c r="F35">
+        <v>30668</v>
+      </c>
+      <c r="G35">
+        <v>29268</v>
+      </c>
+      <c r="H35">
+        <v>25680</v>
+      </c>
+      <c r="I35">
+        <v>20363</v>
+      </c>
+      <c r="J35">
+        <v>17170</v>
+      </c>
+      <c r="K35">
+        <v>16718</v>
+      </c>
+      <c r="L35">
+        <v>17092</v>
+      </c>
+      <c r="M35">
+        <v>19068</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>34199</v>
+      </c>
+      <c r="C36">
+        <v>34477</v>
+      </c>
+      <c r="D36">
+        <v>33865</v>
+      </c>
+      <c r="E36">
+        <v>33570</v>
+      </c>
+      <c r="F36">
+        <v>31689</v>
+      </c>
+      <c r="G36">
+        <v>29940</v>
+      </c>
+      <c r="H36">
+        <v>24535</v>
+      </c>
+      <c r="I36">
+        <v>20436</v>
+      </c>
+      <c r="J36">
+        <v>17211</v>
+      </c>
+      <c r="K36">
+        <v>16193</v>
+      </c>
+      <c r="L36">
+        <v>16963</v>
+      </c>
+      <c r="M36">
+        <v>19162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>34138</v>
+      </c>
+      <c r="C37">
+        <v>34226</v>
+      </c>
+      <c r="D37">
+        <v>34414</v>
+      </c>
+      <c r="E37">
+        <v>33134</v>
+      </c>
+      <c r="F37">
+        <v>31203</v>
+      </c>
+      <c r="G37">
+        <v>30134</v>
+      </c>
+      <c r="H37">
+        <v>25593</v>
+      </c>
+      <c r="I37">
+        <v>19771</v>
+      </c>
+      <c r="J37">
+        <v>17389</v>
+      </c>
+      <c r="K37">
+        <v>16060</v>
+      </c>
+      <c r="L37">
+        <v>17483</v>
+      </c>
+      <c r="M37">
+        <v>19041</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>34316</v>
+      </c>
+      <c r="C38">
+        <v>35129</v>
+      </c>
+      <c r="D38">
+        <v>35090</v>
+      </c>
+      <c r="E38">
+        <v>34913</v>
+      </c>
+      <c r="F38">
+        <v>35974</v>
+      </c>
+      <c r="G38">
+        <v>35594</v>
+      </c>
+      <c r="H38">
+        <v>36340</v>
+      </c>
+      <c r="I38">
+        <v>37012</v>
+      </c>
+      <c r="J38">
+        <v>34670</v>
+      </c>
+      <c r="K38">
+        <v>36934</v>
+      </c>
+      <c r="L38">
+        <v>37196</v>
+      </c>
+      <c r="M38">
+        <v>34624</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>11894</v>
+      </c>
+      <c r="C39">
+        <v>12019</v>
+      </c>
+      <c r="D39">
+        <v>12133</v>
+      </c>
+      <c r="E39">
+        <v>12149</v>
+      </c>
+      <c r="F39">
+        <v>12279</v>
+      </c>
+      <c r="G39">
+        <v>12557</v>
+      </c>
+      <c r="H39">
+        <v>12636</v>
+      </c>
+      <c r="I39">
+        <v>12368</v>
+      </c>
+      <c r="J39">
+        <v>12451</v>
+      </c>
+      <c r="K39">
+        <v>12653</v>
+      </c>
+      <c r="L39">
+        <v>12254</v>
+      </c>
+      <c r="M39">
+        <v>12291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
